--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-904086.0157783496</v>
+        <v>-906634.67296437</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>289.0908630279724</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>16.87651346253431</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>169.9519184342747</v>
+        <v>151.7822816698229</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>62.07870293839544</v>
       </c>
       <c r="G5" t="n">
-        <v>308.8945121978965</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.2398800730555</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>163.7912123214069</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>188.2196394312107</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>266.8321196145441</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>39.61269521953743</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>73.93048349979414</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>37.58623250008689</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>128.3548363691456</v>
       </c>
       <c r="W16" t="n">
-        <v>159.2661870898835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>115.9451354278024</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>161.585440859811</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053466</v>
+        <v>11.56087338713317</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.955370467302</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869782</v>
+        <v>164.2607468869781</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036688</v>
+        <v>151.6755878036686</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232533</v>
+        <v>55.15928926146705</v>
       </c>
       <c r="E34" t="n">
-        <v>52.97777888982188</v>
+        <v>130.8627293516099</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973098</v>
+        <v>149.9529049973096</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512648</v>
+        <v>124.7234795512647</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360648</v>
+        <v>65.69460302360633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516263</v>
+        <v>50.80401341516249</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066855</v>
+        <v>165.4550527066854</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323292</v>
+        <v>201.834217032329</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942851</v>
+        <v>270.6132410942849</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288689</v>
+        <v>236.5664100288688</v>
       </c>
       <c r="W34" t="n">
-        <v>270.951765041632</v>
+        <v>270.9517650416318</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940781</v>
+        <v>210.1384220940779</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571357</v>
+        <v>203.0134200571356</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652449</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652495</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495405</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C2" t="n">
-        <v>758.7856865549932</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D2" t="n">
-        <v>400.5199879482425</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927149</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927149</v>
+        <v>821.1650657389508</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927149</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927149</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2992.290422224999</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2661.227534881429</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2308.458879611315</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1934.993121350235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>1934.993121350235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4486,16 +4486,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>970.0546934046016</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>680.6375233676411</v>
       </c>
       <c r="X4" t="n">
-        <v>899.9272126936338</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.1346335501037</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605789</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.300932605789</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.300932605789</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="E5" t="n">
-        <v>789.512680007545</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="F5" t="n">
-        <v>378.5267752179374</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>880.8839692864693</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1672.018421834499</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1672.018421834499</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1417.333933628612</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.916763591651</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>899.9272126936338</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1346335501037</v>
+        <v>880.8839692864693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.40402049088</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926361</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030285</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102164</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1605.765383218769</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1316.662516344412</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1061.978028138525</v>
+        <v>1060.231468307619</v>
       </c>
       <c r="W10" t="n">
-        <v>772.5608581015648</v>
+        <v>1060.231468307619</v>
       </c>
       <c r="X10" t="n">
-        <v>772.5608581015648</v>
+        <v>832.2419174096015</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>832.2419174096015</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504989</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>762.5348780504989</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4182386381633</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557703</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.61519755786</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2408.997192166031</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1392.965472922286</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807387</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784061</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504992</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381634</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
         <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X19" t="n">
-        <v>1048.112282329344</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311363</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032294</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>903.425880661376</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6631,7 +6631,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279802</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
         <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,43 +6707,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539567</v>
+        <v>778.7344347539579</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058064</v>
+        <v>625.5267703058078</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732273</v>
+        <v>569.8103165063461</v>
       </c>
       <c r="E34" t="n">
-        <v>437.6257414037104</v>
+        <v>437.6257414037098</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037104</v>
+        <v>437.6257414037098</v>
       </c>
       <c r="G34" t="n">
-        <v>286.158160598347</v>
+        <v>286.1581605983465</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203017</v>
+        <v>160.1748479203015</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403049</v>
+        <v>189.4682024403052</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278529</v>
+        <v>466.5729859278534</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658024</v>
+        <v>872.387101065803</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758846</v>
+        <v>1309.812324758847</v>
       </c>
       <c r="N34" t="n">
         <v>1742.637717380865</v>
@@ -6874,34 +6874,34 @@
         <v>2127.582519051859</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587427</v>
+        <v>2435.673495587428</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276336</v>
+        <v>2570.287251276337</v>
       </c>
       <c r="R34" t="n">
         <v>2518.970066008495</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143156</v>
+        <v>2351.843750143157</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645854</v>
+        <v>2147.970803645855</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469808</v>
+        <v>1874.624095469809</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743678</v>
+        <v>1635.668125743679</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186474</v>
+        <v>1361.979474186475</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768213</v>
+        <v>1149.718441768214</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044398</v>
+        <v>944.6543811044407</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192895</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384006</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7114,22 +7114,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192895</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384011</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,7 +7348,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717214</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532431</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,22 +7807,22 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.83950704428935</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>234.1186584963677</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.75773695476244</v>
+        <v>73.92737371921424</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.78901421003479</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>123.7828069546824</v>
       </c>
       <c r="W16" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>170.2393389614417</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>64.12421452922615</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194169</v>
+        <v>205.8445769401551</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194214</v>
+        <v>72.1196935303861</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.88495046178608</v>
       </c>
       <c r="E34" t="n">
-        <v>77.88495046178824</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279722</v>
+        <v>129.849814727972</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>187548.4044340064</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26332,13 +26332,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="L2" t="n">
         <v>224415.4372624254</v>
@@ -26353,7 +26353,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596725</v>
+        <v>12456.98663596705</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317638</v>
+        <v>92025.75929317628</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>14040.01085717763</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820626</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,31 +26433,31 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>19340.46383151812</v>
+        <v>19340.46383151828</v>
       </c>
       <c r="M4" t="n">
+        <v>22207.61133994853</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="O4" t="n">
         <v>22207.61133994851</v>
       </c>
-      <c r="N4" t="n">
-        <v>22207.61133994851</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>22207.61133994852</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1263170.292712157</v>
+        <v>-1263517.911641963</v>
       </c>
       <c r="C6" t="n">
-        <v>24448.75930307824</v>
+        <v>24448.75930307833</v>
       </c>
       <c r="D6" t="n">
-        <v>24448.75930307826</v>
+        <v>24448.759303078</v>
       </c>
       <c r="E6" t="n">
-        <v>-218786.4287933657</v>
+        <v>-218821.166718801</v>
       </c>
       <c r="F6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="G6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885538</v>
       </c>
       <c r="H6" t="n">
-        <v>106626.0330139895</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="I6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="J6" t="n">
-        <v>-110905.169383288</v>
+        <v>-110939.9073087237</v>
       </c>
       <c r="K6" t="n">
-        <v>106626.0330139896</v>
+        <v>106591.2950885539</v>
       </c>
       <c r="L6" t="n">
-        <v>90186.39895915899</v>
+        <v>90173.93487324766</v>
       </c>
       <c r="M6" t="n">
-        <v>8389.000225637719</v>
+        <v>8389.000225637821</v>
       </c>
       <c r="N6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188142</v>
       </c>
       <c r="O6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188137</v>
       </c>
       <c r="P6" t="n">
-        <v>100414.7595188141</v>
+        <v>100414.7595188142</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26765,13 +26765,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080636</v>
+        <v>8.713414197080551</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>344.797342803316</v>
       </c>
       <c r="G5" t="n">
-        <v>102.027213455557</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>60.00694102557236</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55.75773695476232</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222428</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>60.92013885559084</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>179.9362540566318</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>178.2071598240339</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495922</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P33" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,10 +33524,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791242</v>
+        <v>96.61771655791252</v>
       </c>
       <c r="K34" t="n">
-        <v>279.903821704594</v>
+        <v>279.9038217045941</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140904</v>
+        <v>409.9132476140906</v>
       </c>
       <c r="M34" t="n">
         <v>441.8436602960041</v>
@@ -37245,7 +37245,7 @@
         <v>311.203006601584</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948574</v>
+        <v>135.9734905948575</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236320278</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236320278</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016745</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.626661811171</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986645</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
